--- a/www/docs/Sudan_AllIndicatorsAvailable_TerritorialRef_2011_2012_CCode_729.xlsx
+++ b/www/docs/Sudan_AllIndicatorsAvailable_TerritorialRef_2011_2012_CCode_729.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="567">
   <si>
     <t>Country Code</t>
   </si>
@@ -1586,6 +1586,9 @@
     <t>Armed Conflicts (International)</t>
   </si>
   <si>
+    <t>Composite Measure of Wellbeing</t>
+  </si>
+  <si>
     <t>Exchange Rates to UK Pound</t>
   </si>
   <si>
@@ -1601,9 +1604,6 @@
     <t>Infant Mortality</t>
   </si>
   <si>
-    <t>Labourers Real Wage</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -1628,9 +1628,6 @@
     <t>Bosch, Reinoud and Koen van den Bos (2015). Exchange Rates to UK Pound. http://hdl.handle.net/10622/N6BLB8, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
-  </si>
-  <si>
     <t>Baten, Joerg and Mathias Blum (2015). Infant Mortality. http://hdl.handle.net/10622/H83HEV, accessed via the Clio Infra website.</t>
   </si>
   <si>
@@ -1649,76 +1646,79 @@
     <t>Brecke, Peter (2015). Armed conflicts (Internal). http://hdl.handle.net/10622/ORW1HI, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_ORW1HI.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_JQJIP6.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KC0ZHV.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IAEKLA.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_HKZPR9.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_H83HEV.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_ORW1HI.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_JQJIP6.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KC0ZHV.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IAEKLA.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_HKZPR9.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_H83HEV.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_ORW1HI.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_JQJIP6.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KC0ZHV.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IAEKLA.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_HKZPR9.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_H83HEV.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.bib</t>
+    <t>Rijpma, Auke (2017). Composite measure of wellbeing. http://hdl.handle.net/10622/QIPFQF, accessed via the Clio Infra website.</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_JQJIP6.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QIPFQF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KC0ZHV.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IAEKLA.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_HKZPR9.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_H83HEV.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_JQJIP6.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QIPFQF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KC0ZHV.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IAEKLA.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_HKZPR9.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_H83HEV.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_JQJIP6.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QIPFQF.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KC0ZHV.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IAEKLA.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_HKZPR9.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_H83HEV.bib</t>
   </si>
 </sst>
 </file>
@@ -6716,7 +6716,9 @@
       <c r="LI4"/>
       <c r="LJ4"/>
       <c r="LK4"/>
-      <c r="LL4"/>
+      <c r="LL4" t="n">
+        <v>-0.6553339</v>
+      </c>
       <c r="LM4"/>
       <c r="LN4"/>
       <c r="LO4"/>
@@ -6726,7 +6728,9 @@
       <c r="LS4"/>
       <c r="LT4"/>
       <c r="LU4"/>
-      <c r="LV4"/>
+      <c r="LV4" t="n">
+        <v>-0.8741632</v>
+      </c>
       <c r="LW4"/>
       <c r="LX4"/>
       <c r="LY4"/>
@@ -6736,7 +6740,9 @@
       <c r="MC4"/>
       <c r="MD4"/>
       <c r="ME4"/>
-      <c r="MF4"/>
+      <c r="MF4" t="n">
+        <v>-0.8862254</v>
+      </c>
       <c r="MG4"/>
       <c r="MH4"/>
       <c r="MI4"/>
@@ -6746,7 +6752,9 @@
       <c r="MM4"/>
       <c r="MN4"/>
       <c r="MO4"/>
-      <c r="MP4"/>
+      <c r="MP4" t="n">
+        <v>-0.7537712</v>
+      </c>
       <c r="MQ4"/>
       <c r="MR4"/>
       <c r="MS4"/>
@@ -6756,7 +6764,9 @@
       <c r="MW4"/>
       <c r="MX4"/>
       <c r="MY4"/>
-      <c r="MZ4"/>
+      <c r="MZ4" t="n">
+        <v>-0.6972882</v>
+      </c>
       <c r="NA4"/>
       <c r="NB4"/>
       <c r="NC4"/>
@@ -6766,7 +6776,9 @@
       <c r="NG4"/>
       <c r="NH4"/>
       <c r="NI4"/>
-      <c r="NJ4"/>
+      <c r="NJ4" t="n">
+        <v>-0.6721349</v>
+      </c>
       <c r="NK4"/>
       <c r="NL4"/>
       <c r="NM4"/>
@@ -6776,7 +6788,9 @@
       <c r="NQ4"/>
       <c r="NR4"/>
       <c r="NS4"/>
-      <c r="NT4"/>
+      <c r="NT4" t="n">
+        <v>-0.7782155</v>
+      </c>
       <c r="NU4"/>
       <c r="NV4"/>
       <c r="NW4"/>
@@ -6786,7 +6800,9 @@
       <c r="OA4"/>
       <c r="OB4"/>
       <c r="OC4"/>
-      <c r="OD4"/>
+      <c r="OD4" t="n">
+        <v>-0.6949032</v>
+      </c>
       <c r="OE4"/>
       <c r="OF4"/>
       <c r="OG4"/>
@@ -6796,7 +6812,9 @@
       <c r="OK4"/>
       <c r="OL4"/>
       <c r="OM4"/>
-      <c r="ON4"/>
+      <c r="ON4" t="n">
+        <v>-0.7322041</v>
+      </c>
       <c r="OO4"/>
       <c r="OP4"/>
       <c r="OQ4"/>
@@ -6806,7 +6824,9 @@
       <c r="OU4"/>
       <c r="OV4"/>
       <c r="OW4"/>
-      <c r="OX4"/>
+      <c r="OX4" t="n">
+        <v>-0.6454729</v>
+      </c>
       <c r="OY4"/>
       <c r="OZ4"/>
       <c r="PA4"/>
@@ -6816,7 +6836,9 @@
       <c r="PE4"/>
       <c r="PF4"/>
       <c r="PG4"/>
-      <c r="PH4"/>
+      <c r="PH4" t="n">
+        <v>-0.6829847</v>
+      </c>
       <c r="PI4"/>
       <c r="PJ4"/>
       <c r="PK4"/>
@@ -6826,7 +6848,9 @@
       <c r="PO4"/>
       <c r="PP4"/>
       <c r="PQ4"/>
-      <c r="PR4"/>
+      <c r="PR4" t="n">
+        <v>-0.6022014</v>
+      </c>
       <c r="PS4"/>
       <c r="PT4"/>
       <c r="PU4"/>
@@ -6836,7 +6860,9 @@
       <c r="PY4"/>
       <c r="PZ4"/>
       <c r="QA4"/>
-      <c r="QB4"/>
+      <c r="QB4" t="n">
+        <v>-0.3901616</v>
+      </c>
       <c r="QC4"/>
       <c r="QD4"/>
       <c r="QE4"/>
@@ -6846,7 +6872,9 @@
       <c r="QI4"/>
       <c r="QJ4"/>
       <c r="QK4"/>
-      <c r="QL4"/>
+      <c r="QL4" t="n">
+        <v>-0.06936116</v>
+      </c>
       <c r="QM4"/>
       <c r="QN4"/>
       <c r="QO4"/>
@@ -6856,7 +6884,9 @@
       <c r="QS4"/>
       <c r="QT4"/>
       <c r="QU4"/>
-      <c r="QV4"/>
+      <c r="QV4" t="n">
+        <v>0.1944847</v>
+      </c>
       <c r="QW4"/>
       <c r="QX4"/>
       <c r="QY4"/>
@@ -6866,7 +6896,9 @@
       <c r="RC4"/>
       <c r="RD4"/>
       <c r="RE4"/>
-      <c r="RF4"/>
+      <c r="RF4" t="n">
+        <v>0.4412657</v>
+      </c>
       <c r="RG4"/>
       <c r="RH4"/>
       <c r="RI4"/>
@@ -6876,7 +6908,9 @@
       <c r="RM4"/>
       <c r="RN4"/>
       <c r="RO4"/>
-      <c r="RP4"/>
+      <c r="RP4" t="n">
+        <v>0.7050627</v>
+      </c>
       <c r="RQ4"/>
       <c r="RR4"/>
       <c r="RS4"/>
@@ -6886,7 +6920,9 @@
       <c r="RW4"/>
       <c r="RX4"/>
       <c r="RY4"/>
-      <c r="RZ4"/>
+      <c r="RZ4" t="n">
+        <v>0.9858596</v>
+      </c>
       <c r="SA4"/>
       <c r="SB4"/>
       <c r="SC4"/>
@@ -6896,7 +6932,9 @@
       <c r="SG4"/>
       <c r="SH4"/>
       <c r="SI4"/>
-      <c r="SJ4"/>
+      <c r="SJ4" t="n">
+        <v>1.305765</v>
+      </c>
       <c r="SK4"/>
       <c r="SL4"/>
       <c r="SM4"/>
@@ -6907,15 +6945,9 @@
       <c r="SR4"/>
       <c r="SS4"/>
       <c r="ST4"/>
-      <c r="SU4" t="n">
-        <v>4.272465</v>
-      </c>
-      <c r="SV4" t="n">
-        <v>5.644065</v>
-      </c>
-      <c r="SW4" t="n">
-        <v>7.436382</v>
-      </c>
+      <c r="SU4"/>
+      <c r="SV4"/>
+      <c r="SW4"/>
       <c r="SX4"/>
       <c r="SY4"/>
     </row>
@@ -7441,13 +7473,13 @@
       <c r="SS5"/>
       <c r="ST5"/>
       <c r="SU5" t="n">
-        <v>2.66662</v>
+        <v>4.272465</v>
       </c>
       <c r="SV5" t="n">
-        <v>3.572958</v>
+        <v>5.644065</v>
       </c>
       <c r="SW5" t="n">
-        <v>4.756761</v>
+        <v>7.436382</v>
       </c>
       <c r="SX5"/>
       <c r="SY5"/>
@@ -7832,9 +7864,7 @@
       <c r="NG6"/>
       <c r="NH6"/>
       <c r="NI6"/>
-      <c r="NJ6" t="n">
-        <v>167.99</v>
-      </c>
+      <c r="NJ6"/>
       <c r="NK6"/>
       <c r="NL6"/>
       <c r="NM6"/>
@@ -7844,9 +7874,7 @@
       <c r="NQ6"/>
       <c r="NR6"/>
       <c r="NS6"/>
-      <c r="NT6" t="n">
-        <v>169.865</v>
-      </c>
+      <c r="NT6"/>
       <c r="NU6"/>
       <c r="NV6"/>
       <c r="NW6"/>
@@ -7856,9 +7884,7 @@
       <c r="OA6"/>
       <c r="OB6"/>
       <c r="OC6"/>
-      <c r="OD6" t="n">
-        <v>169.836</v>
-      </c>
+      <c r="OD6"/>
       <c r="OE6"/>
       <c r="OF6"/>
       <c r="OG6"/>
@@ -7868,9 +7894,7 @@
       <c r="OK6"/>
       <c r="OL6"/>
       <c r="OM6"/>
-      <c r="ON6" t="n">
-        <v>167.854</v>
-      </c>
+      <c r="ON6"/>
       <c r="OO6"/>
       <c r="OP6"/>
       <c r="OQ6"/>
@@ -7880,9 +7904,7 @@
       <c r="OU6"/>
       <c r="OV6"/>
       <c r="OW6"/>
-      <c r="OX6" t="n">
-        <v>169.0</v>
-      </c>
+      <c r="OX6"/>
       <c r="OY6"/>
       <c r="OZ6"/>
       <c r="PA6"/>
@@ -7892,9 +7914,7 @@
       <c r="PE6"/>
       <c r="PF6"/>
       <c r="PG6"/>
-      <c r="PH6" t="n">
-        <v>170.985</v>
-      </c>
+      <c r="PH6"/>
       <c r="PI6"/>
       <c r="PJ6"/>
       <c r="PK6"/>
@@ -7904,9 +7924,7 @@
       <c r="PO6"/>
       <c r="PP6"/>
       <c r="PQ6"/>
-      <c r="PR6" t="n">
-        <v>167.9</v>
-      </c>
+      <c r="PR6"/>
       <c r="PS6"/>
       <c r="PT6"/>
       <c r="PU6"/>
@@ -7987,9 +8005,15 @@
       <c r="SR6"/>
       <c r="SS6"/>
       <c r="ST6"/>
-      <c r="SU6"/>
-      <c r="SV6"/>
-      <c r="SW6"/>
+      <c r="SU6" t="n">
+        <v>2.66662</v>
+      </c>
+      <c r="SV6" t="n">
+        <v>3.572958</v>
+      </c>
+      <c r="SW6" t="n">
+        <v>4.756761</v>
+      </c>
       <c r="SX6"/>
       <c r="SY6"/>
     </row>
@@ -8373,7 +8397,9 @@
       <c r="NG7"/>
       <c r="NH7"/>
       <c r="NI7"/>
-      <c r="NJ7"/>
+      <c r="NJ7" t="n">
+        <v>167.99</v>
+      </c>
       <c r="NK7"/>
       <c r="NL7"/>
       <c r="NM7"/>
@@ -8383,7 +8409,9 @@
       <c r="NQ7"/>
       <c r="NR7"/>
       <c r="NS7"/>
-      <c r="NT7"/>
+      <c r="NT7" t="n">
+        <v>169.865</v>
+      </c>
       <c r="NU7"/>
       <c r="NV7"/>
       <c r="NW7"/>
@@ -8393,7 +8421,9 @@
       <c r="OA7"/>
       <c r="OB7"/>
       <c r="OC7"/>
-      <c r="OD7"/>
+      <c r="OD7" t="n">
+        <v>169.836</v>
+      </c>
       <c r="OE7"/>
       <c r="OF7"/>
       <c r="OG7"/>
@@ -8403,7 +8433,9 @@
       <c r="OK7"/>
       <c r="OL7"/>
       <c r="OM7"/>
-      <c r="ON7"/>
+      <c r="ON7" t="n">
+        <v>167.854</v>
+      </c>
       <c r="OO7"/>
       <c r="OP7"/>
       <c r="OQ7"/>
@@ -8414,7 +8446,7 @@
       <c r="OV7"/>
       <c r="OW7"/>
       <c r="OX7" t="n">
-        <v>29.4593</v>
+        <v>169.0</v>
       </c>
       <c r="OY7"/>
       <c r="OZ7"/>
@@ -8426,7 +8458,7 @@
       <c r="PF7"/>
       <c r="PG7"/>
       <c r="PH7" t="n">
-        <v>44.879</v>
+        <v>170.985</v>
       </c>
       <c r="PI7"/>
       <c r="PJ7"/>
@@ -8438,7 +8470,7 @@
       <c r="PP7"/>
       <c r="PQ7"/>
       <c r="PR7" t="n">
-        <v>47.9384</v>
+        <v>167.9</v>
       </c>
       <c r="PS7"/>
       <c r="PT7"/>
@@ -8946,7 +8978,9 @@
       <c r="OU8"/>
       <c r="OV8"/>
       <c r="OW8"/>
-      <c r="OX8"/>
+      <c r="OX8" t="n">
+        <v>29.4593</v>
+      </c>
       <c r="OY8"/>
       <c r="OZ8"/>
       <c r="PA8"/>
@@ -8956,7 +8990,9 @@
       <c r="PE8"/>
       <c r="PF8"/>
       <c r="PG8"/>
-      <c r="PH8"/>
+      <c r="PH8" t="n">
+        <v>44.879</v>
+      </c>
       <c r="PI8"/>
       <c r="PJ8"/>
       <c r="PK8"/>
@@ -8966,7 +9002,9 @@
       <c r="PO8"/>
       <c r="PP8"/>
       <c r="PQ8"/>
-      <c r="PR8"/>
+      <c r="PR8" t="n">
+        <v>47.9384</v>
+      </c>
       <c r="PS8"/>
       <c r="PT8"/>
       <c r="PU8"/>
@@ -9026,9 +9064,7 @@
       <c r="RW8"/>
       <c r="RX8"/>
       <c r="RY8"/>
-      <c r="RZ8" t="n">
-        <v>79.197</v>
-      </c>
+      <c r="RZ8"/>
       <c r="SA8"/>
       <c r="SB8"/>
       <c r="SC8"/>
@@ -9038,9 +9074,7 @@
       <c r="SG8"/>
       <c r="SH8"/>
       <c r="SI8"/>
-      <c r="SJ8" t="n">
-        <v>68.6667</v>
-      </c>
+      <c r="SJ8"/>
       <c r="SK8"/>
       <c r="SL8"/>
       <c r="SM8"/>
@@ -9058,7 +9092,9 @@
       <c r="SY8"/>
     </row>
     <row r="9">
-      <c r="A9"/>
+      <c r="A9" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B9" t="s">
         <v>519</v>
       </c>
@@ -9514,33 +9550,17 @@
       <c r="QH9"/>
       <c r="QI9"/>
       <c r="QJ9"/>
-      <c r="QK9" t="n">
-        <v>5.079959</v>
-      </c>
-      <c r="QL9" t="n">
-        <v>6.485531</v>
-      </c>
-      <c r="QM9" t="n">
-        <v>6.727598</v>
-      </c>
+      <c r="QK9"/>
+      <c r="QL9"/>
+      <c r="QM9"/>
       <c r="QN9"/>
-      <c r="QO9" t="n">
-        <v>7.479326</v>
-      </c>
+      <c r="QO9"/>
       <c r="QP9"/>
       <c r="QQ9"/>
-      <c r="QR9" t="n">
-        <v>8.084025</v>
-      </c>
-      <c r="QS9" t="n">
-        <v>7.92328</v>
-      </c>
-      <c r="QT9" t="n">
-        <v>8.084237</v>
-      </c>
-      <c r="QU9" t="n">
-        <v>8.216249</v>
-      </c>
+      <c r="QR9"/>
+      <c r="QS9"/>
+      <c r="QT9"/>
+      <c r="QU9"/>
       <c r="QV9"/>
       <c r="QW9"/>
       <c r="QX9"/>
@@ -9549,38 +9569,20 @@
       <c r="RA9"/>
       <c r="RB9"/>
       <c r="RC9"/>
-      <c r="RD9" t="n">
-        <v>8.699592</v>
-      </c>
-      <c r="RE9" t="n">
-        <v>9.436255</v>
-      </c>
-      <c r="RF9" t="n">
-        <v>8.280041</v>
-      </c>
-      <c r="RG9" t="n">
-        <v>12.31583</v>
-      </c>
+      <c r="RD9"/>
+      <c r="RE9"/>
+      <c r="RF9"/>
+      <c r="RG9"/>
       <c r="RH9"/>
       <c r="RI9"/>
       <c r="RJ9"/>
       <c r="RK9"/>
-      <c r="RL9" t="n">
-        <v>4.428547</v>
-      </c>
-      <c r="RM9" t="n">
-        <v>9.002292</v>
-      </c>
-      <c r="RN9" t="n">
-        <v>14.89477</v>
-      </c>
+      <c r="RL9"/>
+      <c r="RM9"/>
+      <c r="RN9"/>
       <c r="RO9"/>
-      <c r="RP9" t="n">
-        <v>12.02868</v>
-      </c>
-      <c r="RQ9" t="n">
-        <v>9.833899</v>
-      </c>
+      <c r="RP9"/>
+      <c r="RQ9"/>
       <c r="RR9"/>
       <c r="RS9"/>
       <c r="RT9"/>
@@ -9588,15 +9590,11 @@
       <c r="RV9"/>
       <c r="RW9"/>
       <c r="RX9"/>
-      <c r="RY9" t="n">
-        <v>3.895498</v>
-      </c>
+      <c r="RY9"/>
       <c r="RZ9" t="n">
-        <v>2.290948</v>
-      </c>
-      <c r="SA9" t="n">
-        <v>2.042299</v>
-      </c>
+        <v>79.197</v>
+      </c>
+      <c r="SA9"/>
       <c r="SB9"/>
       <c r="SC9"/>
       <c r="SD9"/>
@@ -9605,7 +9603,9 @@
       <c r="SG9"/>
       <c r="SH9"/>
       <c r="SI9"/>
-      <c r="SJ9"/>
+      <c r="SJ9" t="n">
+        <v>68.6667</v>
+      </c>
       <c r="SK9"/>
       <c r="SL9"/>
       <c r="SM9"/>
@@ -20574,13 +20574,13 @@
         <v>519</v>
       </c>
       <c r="C644" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D644" t="n">
-        <v>1821.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E644" t="n">
-        <v>0.0</v>
+        <v>-0.65533391</v>
       </c>
     </row>
     <row r="645">
@@ -20591,7 +20591,7 @@
         <v>519</v>
       </c>
       <c r="C645" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D645" t="n">
         <v>1821.0</v>
@@ -20608,10 +20608,10 @@
         <v>519</v>
       </c>
       <c r="C646" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D646" t="n">
-        <v>1822.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E646" t="n">
         <v>0.0</v>
@@ -20625,7 +20625,7 @@
         <v>519</v>
       </c>
       <c r="C647" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D647" t="n">
         <v>1822.0</v>
@@ -20642,10 +20642,10 @@
         <v>519</v>
       </c>
       <c r="C648" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D648" t="n">
-        <v>1823.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E648" t="n">
         <v>0.0</v>
@@ -20659,7 +20659,7 @@
         <v>519</v>
       </c>
       <c r="C649" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D649" t="n">
         <v>1823.0</v>
@@ -20676,10 +20676,10 @@
         <v>519</v>
       </c>
       <c r="C650" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D650" t="n">
-        <v>1824.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E650" t="n">
         <v>0.0</v>
@@ -20693,7 +20693,7 @@
         <v>519</v>
       </c>
       <c r="C651" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D651" t="n">
         <v>1824.0</v>
@@ -20710,10 +20710,10 @@
         <v>519</v>
       </c>
       <c r="C652" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D652" t="n">
-        <v>1825.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E652" t="n">
         <v>0.0</v>
@@ -20727,7 +20727,7 @@
         <v>519</v>
       </c>
       <c r="C653" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D653" t="n">
         <v>1825.0</v>
@@ -20744,10 +20744,10 @@
         <v>519</v>
       </c>
       <c r="C654" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D654" t="n">
-        <v>1826.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E654" t="n">
         <v>0.0</v>
@@ -20761,7 +20761,7 @@
         <v>519</v>
       </c>
       <c r="C655" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D655" t="n">
         <v>1826.0</v>
@@ -20778,10 +20778,10 @@
         <v>519</v>
       </c>
       <c r="C656" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D656" t="n">
-        <v>1827.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E656" t="n">
         <v>0.0</v>
@@ -20795,7 +20795,7 @@
         <v>519</v>
       </c>
       <c r="C657" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D657" t="n">
         <v>1827.0</v>
@@ -20812,10 +20812,10 @@
         <v>519</v>
       </c>
       <c r="C658" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D658" t="n">
-        <v>1828.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E658" t="n">
         <v>0.0</v>
@@ -20829,7 +20829,7 @@
         <v>519</v>
       </c>
       <c r="C659" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D659" t="n">
         <v>1828.0</v>
@@ -20846,10 +20846,10 @@
         <v>519</v>
       </c>
       <c r="C660" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D660" t="n">
-        <v>1829.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E660" t="n">
         <v>0.0</v>
@@ -20863,7 +20863,7 @@
         <v>519</v>
       </c>
       <c r="C661" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D661" t="n">
         <v>1829.0</v>
@@ -20880,10 +20880,10 @@
         <v>519</v>
       </c>
       <c r="C662" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D662" t="n">
-        <v>1830.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E662" t="n">
         <v>0.0</v>
@@ -20897,7 +20897,7 @@
         <v>519</v>
       </c>
       <c r="C663" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D663" t="n">
         <v>1830.0</v>
@@ -20914,10 +20914,10 @@
         <v>519</v>
       </c>
       <c r="C664" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D664" t="n">
-        <v>1831.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E664" t="n">
         <v>0.0</v>
@@ -20931,13 +20931,13 @@
         <v>519</v>
       </c>
       <c r="C665" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D665" t="n">
-        <v>1831.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E665" t="n">
-        <v>0.0</v>
+        <v>-0.87416316</v>
       </c>
     </row>
     <row r="666">
@@ -20951,7 +20951,7 @@
         <v>520</v>
       </c>
       <c r="D666" t="n">
-        <v>1832.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E666" t="n">
         <v>0.0</v>
@@ -20968,7 +20968,7 @@
         <v>521</v>
       </c>
       <c r="D667" t="n">
-        <v>1832.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E667" t="n">
         <v>0.0</v>
@@ -20985,7 +20985,7 @@
         <v>520</v>
       </c>
       <c r="D668" t="n">
-        <v>1833.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E668" t="n">
         <v>0.0</v>
@@ -21002,7 +21002,7 @@
         <v>521</v>
       </c>
       <c r="D669" t="n">
-        <v>1833.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E669" t="n">
         <v>0.0</v>
@@ -21019,7 +21019,7 @@
         <v>520</v>
       </c>
       <c r="D670" t="n">
-        <v>1834.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E670" t="n">
         <v>0.0</v>
@@ -21036,7 +21036,7 @@
         <v>521</v>
       </c>
       <c r="D671" t="n">
-        <v>1834.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E671" t="n">
         <v>0.0</v>
@@ -21053,7 +21053,7 @@
         <v>520</v>
       </c>
       <c r="D672" t="n">
-        <v>1835.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E672" t="n">
         <v>0.0</v>
@@ -21070,7 +21070,7 @@
         <v>521</v>
       </c>
       <c r="D673" t="n">
-        <v>1835.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E673" t="n">
         <v>0.0</v>
@@ -21087,7 +21087,7 @@
         <v>520</v>
       </c>
       <c r="D674" t="n">
-        <v>1836.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E674" t="n">
         <v>0.0</v>
@@ -21104,7 +21104,7 @@
         <v>521</v>
       </c>
       <c r="D675" t="n">
-        <v>1836.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E675" t="n">
         <v>0.0</v>
@@ -21121,7 +21121,7 @@
         <v>520</v>
       </c>
       <c r="D676" t="n">
-        <v>1837.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E676" t="n">
         <v>0.0</v>
@@ -21138,7 +21138,7 @@
         <v>521</v>
       </c>
       <c r="D677" t="n">
-        <v>1837.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E677" t="n">
         <v>0.0</v>
@@ -21155,7 +21155,7 @@
         <v>520</v>
       </c>
       <c r="D678" t="n">
-        <v>1838.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E678" t="n">
         <v>0.0</v>
@@ -21172,7 +21172,7 @@
         <v>521</v>
       </c>
       <c r="D679" t="n">
-        <v>1838.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E679" t="n">
         <v>0.0</v>
@@ -21189,7 +21189,7 @@
         <v>520</v>
       </c>
       <c r="D680" t="n">
-        <v>1839.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E680" t="n">
         <v>0.0</v>
@@ -21206,7 +21206,7 @@
         <v>521</v>
       </c>
       <c r="D681" t="n">
-        <v>1839.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E681" t="n">
         <v>0.0</v>
@@ -21223,7 +21223,7 @@
         <v>520</v>
       </c>
       <c r="D682" t="n">
-        <v>1840.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E682" t="n">
         <v>0.0</v>
@@ -21240,7 +21240,7 @@
         <v>521</v>
       </c>
       <c r="D683" t="n">
-        <v>1840.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E683" t="n">
         <v>0.0</v>
@@ -21257,7 +21257,7 @@
         <v>520</v>
       </c>
       <c r="D684" t="n">
-        <v>1841.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E684" t="n">
         <v>0.0</v>
@@ -21274,7 +21274,7 @@
         <v>521</v>
       </c>
       <c r="D685" t="n">
-        <v>1841.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E685" t="n">
         <v>0.0</v>
@@ -21288,13 +21288,13 @@
         <v>519</v>
       </c>
       <c r="C686" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D686" t="n">
-        <v>1842.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E686" t="n">
-        <v>0.0</v>
+        <v>-0.88622538</v>
       </c>
     </row>
     <row r="687">
@@ -21305,10 +21305,10 @@
         <v>519</v>
       </c>
       <c r="C687" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D687" t="n">
-        <v>1842.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E687" t="n">
         <v>0.0</v>
@@ -21322,10 +21322,10 @@
         <v>519</v>
       </c>
       <c r="C688" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D688" t="n">
-        <v>1843.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E688" t="n">
         <v>0.0</v>
@@ -21339,10 +21339,10 @@
         <v>519</v>
       </c>
       <c r="C689" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D689" t="n">
-        <v>1843.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E689" t="n">
         <v>0.0</v>
@@ -21356,10 +21356,10 @@
         <v>519</v>
       </c>
       <c r="C690" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D690" t="n">
-        <v>1844.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E690" t="n">
         <v>0.0</v>
@@ -21373,10 +21373,10 @@
         <v>519</v>
       </c>
       <c r="C691" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D691" t="n">
-        <v>1844.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E691" t="n">
         <v>0.0</v>
@@ -21390,10 +21390,10 @@
         <v>519</v>
       </c>
       <c r="C692" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D692" t="n">
-        <v>1845.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E692" t="n">
         <v>0.0</v>
@@ -21407,10 +21407,10 @@
         <v>519</v>
       </c>
       <c r="C693" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D693" t="n">
-        <v>1845.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E693" t="n">
         <v>0.0</v>
@@ -21424,10 +21424,10 @@
         <v>519</v>
       </c>
       <c r="C694" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D694" t="n">
-        <v>1846.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E694" t="n">
         <v>0.0</v>
@@ -21441,10 +21441,10 @@
         <v>519</v>
       </c>
       <c r="C695" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D695" t="n">
-        <v>1846.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E695" t="n">
         <v>0.0</v>
@@ -21458,10 +21458,10 @@
         <v>519</v>
       </c>
       <c r="C696" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D696" t="n">
-        <v>1847.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E696" t="n">
         <v>0.0</v>
@@ -21475,10 +21475,10 @@
         <v>519</v>
       </c>
       <c r="C697" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D697" t="n">
-        <v>1847.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E697" t="n">
         <v>0.0</v>
@@ -21492,10 +21492,10 @@
         <v>519</v>
       </c>
       <c r="C698" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D698" t="n">
-        <v>1848.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E698" t="n">
         <v>0.0</v>
@@ -21509,10 +21509,10 @@
         <v>519</v>
       </c>
       <c r="C699" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D699" t="n">
-        <v>1848.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E699" t="n">
         <v>0.0</v>
@@ -21526,10 +21526,10 @@
         <v>519</v>
       </c>
       <c r="C700" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D700" t="n">
-        <v>1849.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E700" t="n">
         <v>0.0</v>
@@ -21543,10 +21543,10 @@
         <v>519</v>
       </c>
       <c r="C701" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D701" t="n">
-        <v>1849.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E701" t="n">
         <v>0.0</v>
@@ -21560,10 +21560,10 @@
         <v>519</v>
       </c>
       <c r="C702" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D702" t="n">
-        <v>1850.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E702" t="n">
         <v>0.0</v>
@@ -21577,10 +21577,10 @@
         <v>519</v>
       </c>
       <c r="C703" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D703" t="n">
-        <v>1850.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E703" t="n">
         <v>0.0</v>
@@ -21594,10 +21594,10 @@
         <v>519</v>
       </c>
       <c r="C704" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D704" t="n">
-        <v>1851.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E704" t="n">
         <v>0.0</v>
@@ -21611,10 +21611,10 @@
         <v>519</v>
       </c>
       <c r="C705" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D705" t="n">
-        <v>1851.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E705" t="n">
         <v>0.0</v>
@@ -21628,10 +21628,10 @@
         <v>519</v>
       </c>
       <c r="C706" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D706" t="n">
-        <v>1852.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E706" t="n">
         <v>0.0</v>
@@ -21645,13 +21645,13 @@
         <v>519</v>
       </c>
       <c r="C707" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D707" t="n">
-        <v>1852.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E707" t="n">
-        <v>0.0</v>
+        <v>-0.75377123</v>
       </c>
     </row>
     <row r="708">
@@ -21665,7 +21665,7 @@
         <v>520</v>
       </c>
       <c r="D708" t="n">
-        <v>1853.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E708" t="n">
         <v>0.0</v>
@@ -21682,7 +21682,7 @@
         <v>521</v>
       </c>
       <c r="D709" t="n">
-        <v>1853.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E709" t="n">
         <v>0.0</v>
@@ -21699,7 +21699,7 @@
         <v>520</v>
       </c>
       <c r="D710" t="n">
-        <v>1854.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E710" t="n">
         <v>0.0</v>
@@ -21716,7 +21716,7 @@
         <v>521</v>
       </c>
       <c r="D711" t="n">
-        <v>1854.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E711" t="n">
         <v>0.0</v>
@@ -21733,7 +21733,7 @@
         <v>520</v>
       </c>
       <c r="D712" t="n">
-        <v>1855.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E712" t="n">
         <v>0.0</v>
@@ -21750,7 +21750,7 @@
         <v>521</v>
       </c>
       <c r="D713" t="n">
-        <v>1855.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E713" t="n">
         <v>0.0</v>
@@ -21767,7 +21767,7 @@
         <v>520</v>
       </c>
       <c r="D714" t="n">
-        <v>1856.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E714" t="n">
         <v>0.0</v>
@@ -21784,7 +21784,7 @@
         <v>521</v>
       </c>
       <c r="D715" t="n">
-        <v>1856.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E715" t="n">
         <v>0.0</v>
@@ -21801,7 +21801,7 @@
         <v>520</v>
       </c>
       <c r="D716" t="n">
-        <v>1857.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E716" t="n">
         <v>0.0</v>
@@ -21818,7 +21818,7 @@
         <v>521</v>
       </c>
       <c r="D717" t="n">
-        <v>1857.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E717" t="n">
         <v>0.0</v>
@@ -21835,7 +21835,7 @@
         <v>520</v>
       </c>
       <c r="D718" t="n">
-        <v>1858.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E718" t="n">
         <v>0.0</v>
@@ -21852,7 +21852,7 @@
         <v>521</v>
       </c>
       <c r="D719" t="n">
-        <v>1858.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E719" t="n">
         <v>0.0</v>
@@ -21869,7 +21869,7 @@
         <v>520</v>
       </c>
       <c r="D720" t="n">
-        <v>1859.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E720" t="n">
         <v>0.0</v>
@@ -21886,7 +21886,7 @@
         <v>521</v>
       </c>
       <c r="D721" t="n">
-        <v>1859.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E721" t="n">
         <v>0.0</v>
@@ -21903,7 +21903,7 @@
         <v>520</v>
       </c>
       <c r="D722" t="n">
-        <v>1860.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E722" t="n">
         <v>0.0</v>
@@ -21920,7 +21920,7 @@
         <v>521</v>
       </c>
       <c r="D723" t="n">
-        <v>1860.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E723" t="n">
         <v>0.0</v>
@@ -21937,7 +21937,7 @@
         <v>520</v>
       </c>
       <c r="D724" t="n">
-        <v>1861.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E724" t="n">
         <v>0.0</v>
@@ -21954,7 +21954,7 @@
         <v>521</v>
       </c>
       <c r="D725" t="n">
-        <v>1861.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E725" t="n">
         <v>0.0</v>
@@ -21971,7 +21971,7 @@
         <v>520</v>
       </c>
       <c r="D726" t="n">
-        <v>1862.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E726" t="n">
         <v>0.0</v>
@@ -21988,7 +21988,7 @@
         <v>521</v>
       </c>
       <c r="D727" t="n">
-        <v>1862.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E727" t="n">
         <v>0.0</v>
@@ -22002,13 +22002,13 @@
         <v>519</v>
       </c>
       <c r="C728" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D728" t="n">
-        <v>1863.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E728" t="n">
-        <v>0.0</v>
+        <v>-0.69728824</v>
       </c>
     </row>
     <row r="729">
@@ -22019,10 +22019,10 @@
         <v>519</v>
       </c>
       <c r="C729" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D729" t="n">
-        <v>1863.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E729" t="n">
         <v>0.0</v>
@@ -22036,10 +22036,10 @@
         <v>519</v>
       </c>
       <c r="C730" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D730" t="n">
-        <v>1864.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E730" t="n">
         <v>0.0</v>
@@ -22053,10 +22053,10 @@
         <v>519</v>
       </c>
       <c r="C731" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D731" t="n">
-        <v>1864.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E731" t="n">
         <v>0.0</v>
@@ -22070,10 +22070,10 @@
         <v>519</v>
       </c>
       <c r="C732" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D732" t="n">
-        <v>1865.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E732" t="n">
         <v>0.0</v>
@@ -22087,10 +22087,10 @@
         <v>519</v>
       </c>
       <c r="C733" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D733" t="n">
-        <v>1865.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E733" t="n">
         <v>0.0</v>
@@ -22104,10 +22104,10 @@
         <v>519</v>
       </c>
       <c r="C734" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D734" t="n">
-        <v>1866.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E734" t="n">
         <v>0.0</v>
@@ -22121,10 +22121,10 @@
         <v>519</v>
       </c>
       <c r="C735" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D735" t="n">
-        <v>1866.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E735" t="n">
         <v>0.0</v>
@@ -22138,10 +22138,10 @@
         <v>519</v>
       </c>
       <c r="C736" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D736" t="n">
-        <v>1867.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E736" t="n">
         <v>0.0</v>
@@ -22155,10 +22155,10 @@
         <v>519</v>
       </c>
       <c r="C737" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D737" t="n">
-        <v>1867.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E737" t="n">
         <v>0.0</v>
@@ -22172,10 +22172,10 @@
         <v>519</v>
       </c>
       <c r="C738" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D738" t="n">
-        <v>1868.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E738" t="n">
         <v>0.0</v>
@@ -22189,10 +22189,10 @@
         <v>519</v>
       </c>
       <c r="C739" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D739" t="n">
-        <v>1868.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E739" t="n">
         <v>0.0</v>
@@ -22206,10 +22206,10 @@
         <v>519</v>
       </c>
       <c r="C740" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D740" t="n">
-        <v>1869.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E740" t="n">
         <v>0.0</v>
@@ -22223,10 +22223,10 @@
         <v>519</v>
       </c>
       <c r="C741" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D741" t="n">
-        <v>1869.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E741" t="n">
         <v>0.0</v>
@@ -22240,10 +22240,10 @@
         <v>519</v>
       </c>
       <c r="C742" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D742" t="n">
-        <v>1870.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E742" t="n">
         <v>0.0</v>
@@ -22257,10 +22257,10 @@
         <v>519</v>
       </c>
       <c r="C743" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D743" t="n">
-        <v>1870.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E743" t="n">
         <v>0.0</v>
@@ -22274,13 +22274,13 @@
         <v>519</v>
       </c>
       <c r="C744" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D744" t="n">
-        <v>1870.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E744" t="n">
-        <v>167.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="745">
@@ -22294,7 +22294,7 @@
         <v>520</v>
       </c>
       <c r="D745" t="n">
-        <v>1871.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E745" t="n">
         <v>0.0</v>
@@ -22311,7 +22311,7 @@
         <v>521</v>
       </c>
       <c r="D746" t="n">
-        <v>1871.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E746" t="n">
         <v>0.0</v>
@@ -22328,7 +22328,7 @@
         <v>520</v>
       </c>
       <c r="D747" t="n">
-        <v>1872.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E747" t="n">
         <v>0.0</v>
@@ -22345,7 +22345,7 @@
         <v>521</v>
       </c>
       <c r="D748" t="n">
-        <v>1872.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E748" t="n">
         <v>0.0</v>
@@ -22359,13 +22359,13 @@
         <v>519</v>
       </c>
       <c r="C749" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D749" t="n">
-        <v>1873.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E749" t="n">
-        <v>0.0</v>
+        <v>-0.67213492</v>
       </c>
     </row>
     <row r="750">
@@ -22376,13 +22376,13 @@
         <v>519</v>
       </c>
       <c r="C750" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D750" t="n">
-        <v>1873.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E750" t="n">
-        <v>0.0</v>
+        <v>167.99</v>
       </c>
     </row>
     <row r="751">
@@ -22396,7 +22396,7 @@
         <v>520</v>
       </c>
       <c r="D751" t="n">
-        <v>1874.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E751" t="n">
         <v>0.0</v>
@@ -22413,7 +22413,7 @@
         <v>521</v>
       </c>
       <c r="D752" t="n">
-        <v>1874.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E752" t="n">
         <v>0.0</v>
@@ -22430,7 +22430,7 @@
         <v>520</v>
       </c>
       <c r="D753" t="n">
-        <v>1875.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E753" t="n">
         <v>0.0</v>
@@ -22447,7 +22447,7 @@
         <v>521</v>
       </c>
       <c r="D754" t="n">
-        <v>1875.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E754" t="n">
         <v>0.0</v>
@@ -22464,7 +22464,7 @@
         <v>520</v>
       </c>
       <c r="D755" t="n">
-        <v>1876.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E755" t="n">
         <v>0.0</v>
@@ -22481,7 +22481,7 @@
         <v>521</v>
       </c>
       <c r="D756" t="n">
-        <v>1876.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E756" t="n">
         <v>0.0</v>
@@ -22498,7 +22498,7 @@
         <v>520</v>
       </c>
       <c r="D757" t="n">
-        <v>1877.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E757" t="n">
         <v>0.0</v>
@@ -22515,7 +22515,7 @@
         <v>521</v>
       </c>
       <c r="D758" t="n">
-        <v>1877.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E758" t="n">
         <v>0.0</v>
@@ -22532,7 +22532,7 @@
         <v>520</v>
       </c>
       <c r="D759" t="n">
-        <v>1878.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E759" t="n">
         <v>0.0</v>
@@ -22549,7 +22549,7 @@
         <v>521</v>
       </c>
       <c r="D760" t="n">
-        <v>1878.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E760" t="n">
         <v>0.0</v>
@@ -22566,7 +22566,7 @@
         <v>520</v>
       </c>
       <c r="D761" t="n">
-        <v>1879.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E761" t="n">
         <v>0.0</v>
@@ -22583,7 +22583,7 @@
         <v>521</v>
       </c>
       <c r="D762" t="n">
-        <v>1879.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E762" t="n">
         <v>0.0</v>
@@ -22600,7 +22600,7 @@
         <v>520</v>
       </c>
       <c r="D763" t="n">
-        <v>1880.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E763" t="n">
         <v>0.0</v>
@@ -22617,7 +22617,7 @@
         <v>521</v>
       </c>
       <c r="D764" t="n">
-        <v>1880.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E764" t="n">
         <v>0.0</v>
@@ -22631,13 +22631,13 @@
         <v>519</v>
       </c>
       <c r="C765" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D765" t="n">
-        <v>1880.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E765" t="n">
-        <v>169.865</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="766">
@@ -22648,10 +22648,10 @@
         <v>519</v>
       </c>
       <c r="C766" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D766" t="n">
-        <v>1881.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E766" t="n">
         <v>0.0</v>
@@ -22665,10 +22665,10 @@
         <v>519</v>
       </c>
       <c r="C767" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D767" t="n">
-        <v>1881.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E767" t="n">
         <v>0.0</v>
@@ -22682,10 +22682,10 @@
         <v>519</v>
       </c>
       <c r="C768" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D768" t="n">
-        <v>1882.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E768" t="n">
         <v>0.0</v>
@@ -22699,10 +22699,10 @@
         <v>519</v>
       </c>
       <c r="C769" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D769" t="n">
-        <v>1882.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E769" t="n">
         <v>0.0</v>
@@ -22716,10 +22716,10 @@
         <v>519</v>
       </c>
       <c r="C770" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D770" t="n">
-        <v>1883.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E770" t="n">
         <v>0.0</v>
@@ -22733,13 +22733,13 @@
         <v>519</v>
       </c>
       <c r="C771" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D771" t="n">
-        <v>1883.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E771" t="n">
-        <v>0.0</v>
+        <v>-0.77821553</v>
       </c>
     </row>
     <row r="772">
@@ -22750,13 +22750,13 @@
         <v>519</v>
       </c>
       <c r="C772" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D772" t="n">
-        <v>1884.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E772" t="n">
-        <v>0.0</v>
+        <v>169.865</v>
       </c>
     </row>
     <row r="773">
@@ -22767,10 +22767,10 @@
         <v>519</v>
       </c>
       <c r="C773" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D773" t="n">
-        <v>1884.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E773" t="n">
         <v>0.0</v>
@@ -22784,10 +22784,10 @@
         <v>519</v>
       </c>
       <c r="C774" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D774" t="n">
-        <v>1885.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E774" t="n">
         <v>0.0</v>
@@ -22801,10 +22801,10 @@
         <v>519</v>
       </c>
       <c r="C775" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D775" t="n">
-        <v>1885.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E775" t="n">
         <v>0.0</v>
@@ -22818,10 +22818,10 @@
         <v>519</v>
       </c>
       <c r="C776" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D776" t="n">
-        <v>1886.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E776" t="n">
         <v>0.0</v>
@@ -22835,10 +22835,10 @@
         <v>519</v>
       </c>
       <c r="C777" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D777" t="n">
-        <v>1886.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E777" t="n">
         <v>0.0</v>
@@ -22852,10 +22852,10 @@
         <v>519</v>
       </c>
       <c r="C778" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D778" t="n">
-        <v>1887.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E778" t="n">
         <v>0.0</v>
@@ -22869,10 +22869,10 @@
         <v>519</v>
       </c>
       <c r="C779" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D779" t="n">
-        <v>1887.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E779" t="n">
         <v>0.0</v>
@@ -22886,10 +22886,10 @@
         <v>519</v>
       </c>
       <c r="C780" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D780" t="n">
-        <v>1888.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E780" t="n">
         <v>0.0</v>
@@ -22903,10 +22903,10 @@
         <v>519</v>
       </c>
       <c r="C781" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D781" t="n">
-        <v>1888.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E781" t="n">
         <v>0.0</v>
@@ -22920,10 +22920,10 @@
         <v>519</v>
       </c>
       <c r="C782" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D782" t="n">
-        <v>1889.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E782" t="n">
         <v>0.0</v>
@@ -22937,10 +22937,10 @@
         <v>519</v>
       </c>
       <c r="C783" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D783" t="n">
-        <v>1889.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E783" t="n">
         <v>0.0</v>
@@ -22954,10 +22954,10 @@
         <v>519</v>
       </c>
       <c r="C784" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D784" t="n">
-        <v>1890.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E784" t="n">
         <v>0.0</v>
@@ -22971,10 +22971,10 @@
         <v>519</v>
       </c>
       <c r="C785" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D785" t="n">
-        <v>1890.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E785" t="n">
         <v>0.0</v>
@@ -22988,13 +22988,13 @@
         <v>519</v>
       </c>
       <c r="C786" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D786" t="n">
-        <v>1890.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E786" t="n">
-        <v>169.836</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="787">
@@ -23008,7 +23008,7 @@
         <v>520</v>
       </c>
       <c r="D787" t="n">
-        <v>1891.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E787" t="n">
         <v>0.0</v>
@@ -23025,7 +23025,7 @@
         <v>521</v>
       </c>
       <c r="D788" t="n">
-        <v>1891.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E788" t="n">
         <v>0.0</v>
@@ -23042,7 +23042,7 @@
         <v>520</v>
       </c>
       <c r="D789" t="n">
-        <v>1892.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E789" t="n">
         <v>0.0</v>
@@ -23059,7 +23059,7 @@
         <v>521</v>
       </c>
       <c r="D790" t="n">
-        <v>1892.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E790" t="n">
         <v>0.0</v>
@@ -23076,7 +23076,7 @@
         <v>520</v>
       </c>
       <c r="D791" t="n">
-        <v>1893.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E791" t="n">
         <v>0.0</v>
@@ -23093,7 +23093,7 @@
         <v>521</v>
       </c>
       <c r="D792" t="n">
-        <v>1893.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E792" t="n">
         <v>0.0</v>
@@ -23107,13 +23107,13 @@
         <v>519</v>
       </c>
       <c r="C793" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D793" t="n">
-        <v>1894.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E793" t="n">
-        <v>0.0</v>
+        <v>-0.69490317</v>
       </c>
     </row>
     <row r="794">
@@ -23124,13 +23124,13 @@
         <v>519</v>
       </c>
       <c r="C794" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D794" t="n">
-        <v>1894.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E794" t="n">
-        <v>0.0</v>
+        <v>169.836</v>
       </c>
     </row>
     <row r="795">
@@ -23144,7 +23144,7 @@
         <v>520</v>
       </c>
       <c r="D795" t="n">
-        <v>1895.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E795" t="n">
         <v>0.0</v>
@@ -23161,7 +23161,7 @@
         <v>521</v>
       </c>
       <c r="D796" t="n">
-        <v>1895.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E796" t="n">
         <v>0.0</v>
@@ -23178,7 +23178,7 @@
         <v>520</v>
       </c>
       <c r="D797" t="n">
-        <v>1896.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E797" t="n">
         <v>0.0</v>
@@ -23195,7 +23195,7 @@
         <v>521</v>
       </c>
       <c r="D798" t="n">
-        <v>1896.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E798" t="n">
         <v>0.0</v>
@@ -23212,7 +23212,7 @@
         <v>520</v>
       </c>
       <c r="D799" t="n">
-        <v>1897.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E799" t="n">
         <v>0.0</v>
@@ -23229,7 +23229,7 @@
         <v>521</v>
       </c>
       <c r="D800" t="n">
-        <v>1897.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E800" t="n">
         <v>0.0</v>
@@ -23246,7 +23246,7 @@
         <v>520</v>
       </c>
       <c r="D801" t="n">
-        <v>1898.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E801" t="n">
         <v>0.0</v>
@@ -23263,7 +23263,7 @@
         <v>521</v>
       </c>
       <c r="D802" t="n">
-        <v>1898.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E802" t="n">
         <v>0.0</v>
@@ -23280,7 +23280,7 @@
         <v>520</v>
       </c>
       <c r="D803" t="n">
-        <v>1899.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E803" t="n">
         <v>0.0</v>
@@ -23297,7 +23297,7 @@
         <v>521</v>
       </c>
       <c r="D804" t="n">
-        <v>1899.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E804" t="n">
         <v>0.0</v>
@@ -23314,7 +23314,7 @@
         <v>520</v>
       </c>
       <c r="D805" t="n">
-        <v>1900.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E805" t="n">
         <v>0.0</v>
@@ -23331,7 +23331,7 @@
         <v>521</v>
       </c>
       <c r="D806" t="n">
-        <v>1900.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E806" t="n">
         <v>0.0</v>
@@ -23345,13 +23345,13 @@
         <v>519</v>
       </c>
       <c r="C807" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D807" t="n">
-        <v>1900.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E807" t="n">
-        <v>167.854</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="808">
@@ -23362,10 +23362,10 @@
         <v>519</v>
       </c>
       <c r="C808" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D808" t="n">
-        <v>1901.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E808" t="n">
         <v>0.0</v>
@@ -23379,10 +23379,10 @@
         <v>519</v>
       </c>
       <c r="C809" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D809" t="n">
-        <v>1901.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E809" t="n">
         <v>0.0</v>
@@ -23396,10 +23396,10 @@
         <v>519</v>
       </c>
       <c r="C810" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D810" t="n">
-        <v>1902.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E810" t="n">
         <v>0.0</v>
@@ -23413,10 +23413,10 @@
         <v>519</v>
       </c>
       <c r="C811" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D811" t="n">
-        <v>1902.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E811" t="n">
         <v>0.0</v>
@@ -23430,10 +23430,10 @@
         <v>519</v>
       </c>
       <c r="C812" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D812" t="n">
-        <v>1903.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E812" t="n">
         <v>0.0</v>
@@ -23447,10 +23447,10 @@
         <v>519</v>
       </c>
       <c r="C813" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D813" t="n">
-        <v>1903.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E813" t="n">
         <v>0.0</v>
@@ -23464,10 +23464,10 @@
         <v>519</v>
       </c>
       <c r="C814" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D814" t="n">
-        <v>1904.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E814" t="n">
         <v>0.0</v>
@@ -23481,13 +23481,13 @@
         <v>519</v>
       </c>
       <c r="C815" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D815" t="n">
-        <v>1904.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E815" t="n">
-        <v>0.0</v>
+        <v>-0.73220414</v>
       </c>
     </row>
     <row r="816">
@@ -23498,13 +23498,13 @@
         <v>519</v>
       </c>
       <c r="C816" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D816" t="n">
-        <v>1905.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E816" t="n">
-        <v>0.0</v>
+        <v>167.854</v>
       </c>
     </row>
     <row r="817">
@@ -23515,10 +23515,10 @@
         <v>519</v>
       </c>
       <c r="C817" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D817" t="n">
-        <v>1905.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E817" t="n">
         <v>0.0</v>
@@ -23532,10 +23532,10 @@
         <v>519</v>
       </c>
       <c r="C818" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D818" t="n">
-        <v>1906.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E818" t="n">
         <v>0.0</v>
@@ -23549,10 +23549,10 @@
         <v>519</v>
       </c>
       <c r="C819" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D819" t="n">
-        <v>1906.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E819" t="n">
         <v>0.0</v>
@@ -23566,10 +23566,10 @@
         <v>519</v>
       </c>
       <c r="C820" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D820" t="n">
-        <v>1907.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E820" t="n">
         <v>0.0</v>
@@ -23583,10 +23583,10 @@
         <v>519</v>
       </c>
       <c r="C821" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D821" t="n">
-        <v>1907.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E821" t="n">
         <v>0.0</v>
@@ -23600,10 +23600,10 @@
         <v>519</v>
       </c>
       <c r="C822" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D822" t="n">
-        <v>1908.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E822" t="n">
         <v>0.0</v>
@@ -23617,10 +23617,10 @@
         <v>519</v>
       </c>
       <c r="C823" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D823" t="n">
-        <v>1908.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E823" t="n">
         <v>0.0</v>
@@ -23634,10 +23634,10 @@
         <v>519</v>
       </c>
       <c r="C824" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D824" t="n">
-        <v>1909.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E824" t="n">
         <v>0.0</v>
@@ -23651,10 +23651,10 @@
         <v>519</v>
       </c>
       <c r="C825" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D825" t="n">
-        <v>1909.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E825" t="n">
         <v>0.0</v>
@@ -23668,10 +23668,10 @@
         <v>519</v>
       </c>
       <c r="C826" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D826" t="n">
-        <v>1910.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E826" t="n">
         <v>0.0</v>
@@ -23685,10 +23685,10 @@
         <v>519</v>
       </c>
       <c r="C827" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D827" t="n">
-        <v>1910.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E827" t="n">
         <v>0.0</v>
@@ -23702,13 +23702,13 @@
         <v>519</v>
       </c>
       <c r="C828" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D828" t="n">
-        <v>1910.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E828" t="n">
-        <v>169.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="829">
@@ -23719,13 +23719,13 @@
         <v>519</v>
       </c>
       <c r="C829" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D829" t="n">
-        <v>1910.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E829" t="n">
-        <v>29.4593</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="830">
@@ -23736,10 +23736,10 @@
         <v>519</v>
       </c>
       <c r="C830" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D830" t="n">
-        <v>1911.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E830" t="n">
         <v>0.0</v>
@@ -23753,10 +23753,10 @@
         <v>519</v>
       </c>
       <c r="C831" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D831" t="n">
-        <v>1911.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E831" t="n">
         <v>0.0</v>
@@ -23770,10 +23770,10 @@
         <v>519</v>
       </c>
       <c r="C832" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D832" t="n">
-        <v>1912.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E832" t="n">
         <v>0.0</v>
@@ -23787,10 +23787,10 @@
         <v>519</v>
       </c>
       <c r="C833" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D833" t="n">
-        <v>1912.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E833" t="n">
         <v>0.0</v>
@@ -23804,10 +23804,10 @@
         <v>519</v>
       </c>
       <c r="C834" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D834" t="n">
-        <v>1913.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E834" t="n">
         <v>0.0</v>
@@ -23821,10 +23821,10 @@
         <v>519</v>
       </c>
       <c r="C835" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D835" t="n">
-        <v>1913.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E835" t="n">
         <v>0.0</v>
@@ -23838,10 +23838,10 @@
         <v>519</v>
       </c>
       <c r="C836" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D836" t="n">
-        <v>1914.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E836" t="n">
         <v>0.0</v>
@@ -23855,13 +23855,13 @@
         <v>519</v>
       </c>
       <c r="C837" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D837" t="n">
-        <v>1914.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E837" t="n">
-        <v>0.0</v>
+        <v>-0.64547289</v>
       </c>
     </row>
     <row r="838">
@@ -23872,13 +23872,13 @@
         <v>519</v>
       </c>
       <c r="C838" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D838" t="n">
-        <v>1915.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E838" t="n">
-        <v>0.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="839">
@@ -23889,13 +23889,13 @@
         <v>519</v>
       </c>
       <c r="C839" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D839" t="n">
-        <v>1915.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E839" t="n">
-        <v>0.0</v>
+        <v>29.4593</v>
       </c>
     </row>
     <row r="840">
@@ -23909,7 +23909,7 @@
         <v>520</v>
       </c>
       <c r="D840" t="n">
-        <v>1916.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E840" t="n">
         <v>0.0</v>
@@ -23926,7 +23926,7 @@
         <v>521</v>
       </c>
       <c r="D841" t="n">
-        <v>1916.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E841" t="n">
         <v>0.0</v>
@@ -23943,7 +23943,7 @@
         <v>520</v>
       </c>
       <c r="D842" t="n">
-        <v>1917.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E842" t="n">
         <v>0.0</v>
@@ -23960,7 +23960,7 @@
         <v>521</v>
       </c>
       <c r="D843" t="n">
-        <v>1917.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E843" t="n">
         <v>0.0</v>
@@ -23977,7 +23977,7 @@
         <v>520</v>
       </c>
       <c r="D844" t="n">
-        <v>1918.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E844" t="n">
         <v>0.0</v>
@@ -23994,7 +23994,7 @@
         <v>521</v>
       </c>
       <c r="D845" t="n">
-        <v>1918.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E845" t="n">
         <v>0.0</v>
@@ -24011,7 +24011,7 @@
         <v>520</v>
       </c>
       <c r="D846" t="n">
-        <v>1919.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E846" t="n">
         <v>0.0</v>
@@ -24028,7 +24028,7 @@
         <v>521</v>
       </c>
       <c r="D847" t="n">
-        <v>1919.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E847" t="n">
         <v>0.0</v>
@@ -24045,7 +24045,7 @@
         <v>520</v>
       </c>
       <c r="D848" t="n">
-        <v>1920.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E848" t="n">
         <v>0.0</v>
@@ -24062,7 +24062,7 @@
         <v>521</v>
       </c>
       <c r="D849" t="n">
-        <v>1920.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E849" t="n">
         <v>0.0</v>
@@ -24076,13 +24076,13 @@
         <v>519</v>
       </c>
       <c r="C850" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D850" t="n">
-        <v>1920.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E850" t="n">
-        <v>170.985</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="851">
@@ -24093,13 +24093,13 @@
         <v>519</v>
       </c>
       <c r="C851" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D851" t="n">
-        <v>1920.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E851" t="n">
-        <v>44.879</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="852">
@@ -24113,7 +24113,7 @@
         <v>520</v>
       </c>
       <c r="D852" t="n">
-        <v>1921.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E852" t="n">
         <v>0.0</v>
@@ -24130,7 +24130,7 @@
         <v>521</v>
       </c>
       <c r="D853" t="n">
-        <v>1921.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E853" t="n">
         <v>0.0</v>
@@ -24147,7 +24147,7 @@
         <v>520</v>
       </c>
       <c r="D854" t="n">
-        <v>1922.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E854" t="n">
         <v>0.0</v>
@@ -24164,7 +24164,7 @@
         <v>521</v>
       </c>
       <c r="D855" t="n">
-        <v>1922.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E855" t="n">
         <v>0.0</v>
@@ -24181,7 +24181,7 @@
         <v>520</v>
       </c>
       <c r="D856" t="n">
-        <v>1923.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E856" t="n">
         <v>0.0</v>
@@ -24198,7 +24198,7 @@
         <v>521</v>
       </c>
       <c r="D857" t="n">
-        <v>1923.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E857" t="n">
         <v>0.0</v>
@@ -24215,7 +24215,7 @@
         <v>520</v>
       </c>
       <c r="D858" t="n">
-        <v>1924.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E858" t="n">
         <v>0.0</v>
@@ -24232,7 +24232,7 @@
         <v>521</v>
       </c>
       <c r="D859" t="n">
-        <v>1924.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E859" t="n">
         <v>0.0</v>
@@ -24246,13 +24246,13 @@
         <v>519</v>
       </c>
       <c r="C860" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D860" t="n">
-        <v>1925.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E860" t="n">
-        <v>0.0</v>
+        <v>-0.68298467</v>
       </c>
     </row>
     <row r="861">
@@ -24263,13 +24263,13 @@
         <v>519</v>
       </c>
       <c r="C861" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D861" t="n">
-        <v>1925.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E861" t="n">
-        <v>0.0</v>
+        <v>170.985</v>
       </c>
     </row>
     <row r="862">
@@ -24280,13 +24280,13 @@
         <v>519</v>
       </c>
       <c r="C862" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D862" t="n">
-        <v>1926.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E862" t="n">
-        <v>0.0</v>
+        <v>44.879</v>
       </c>
     </row>
     <row r="863">
@@ -24297,10 +24297,10 @@
         <v>519</v>
       </c>
       <c r="C863" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D863" t="n">
-        <v>1926.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E863" t="n">
         <v>0.0</v>
@@ -24314,10 +24314,10 @@
         <v>519</v>
       </c>
       <c r="C864" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D864" t="n">
-        <v>1927.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E864" t="n">
         <v>0.0</v>
@@ -24331,10 +24331,10 @@
         <v>519</v>
       </c>
       <c r="C865" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D865" t="n">
-        <v>1927.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E865" t="n">
         <v>0.0</v>
@@ -24348,10 +24348,10 @@
         <v>519</v>
       </c>
       <c r="C866" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D866" t="n">
-        <v>1928.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E866" t="n">
         <v>0.0</v>
@@ -24365,10 +24365,10 @@
         <v>519</v>
       </c>
       <c r="C867" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D867" t="n">
-        <v>1928.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E867" t="n">
         <v>0.0</v>
@@ -24382,10 +24382,10 @@
         <v>519</v>
       </c>
       <c r="C868" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D868" t="n">
-        <v>1929.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E868" t="n">
         <v>0.0</v>
@@ -24399,10 +24399,10 @@
         <v>519</v>
       </c>
       <c r="C869" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D869" t="n">
-        <v>1929.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E869" t="n">
         <v>0.0</v>
@@ -24416,10 +24416,10 @@
         <v>519</v>
       </c>
       <c r="C870" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D870" t="n">
-        <v>1930.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E870" t="n">
         <v>0.0</v>
@@ -24433,10 +24433,10 @@
         <v>519</v>
       </c>
       <c r="C871" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D871" t="n">
-        <v>1930.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E871" t="n">
         <v>0.0</v>
@@ -24450,13 +24450,13 @@
         <v>519</v>
       </c>
       <c r="C872" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D872" t="n">
-        <v>1930.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E872" t="n">
-        <v>167.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="873">
@@ -24467,13 +24467,13 @@
         <v>519</v>
       </c>
       <c r="C873" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D873" t="n">
-        <v>1930.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E873" t="n">
-        <v>47.9384</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="874">
@@ -24484,10 +24484,10 @@
         <v>519</v>
       </c>
       <c r="C874" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D874" t="n">
-        <v>1931.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E874" t="n">
         <v>0.0</v>
@@ -24501,10 +24501,10 @@
         <v>519</v>
       </c>
       <c r="C875" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D875" t="n">
-        <v>1931.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E875" t="n">
         <v>0.0</v>
@@ -24518,10 +24518,10 @@
         <v>519</v>
       </c>
       <c r="C876" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D876" t="n">
-        <v>1932.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E876" t="n">
         <v>0.0</v>
@@ -24535,10 +24535,10 @@
         <v>519</v>
       </c>
       <c r="C877" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D877" t="n">
-        <v>1932.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E877" t="n">
         <v>0.0</v>
@@ -24552,10 +24552,10 @@
         <v>519</v>
       </c>
       <c r="C878" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D878" t="n">
-        <v>1933.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E878" t="n">
         <v>0.0</v>
@@ -24569,10 +24569,10 @@
         <v>519</v>
       </c>
       <c r="C879" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D879" t="n">
-        <v>1933.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E879" t="n">
         <v>0.0</v>
@@ -24586,10 +24586,10 @@
         <v>519</v>
       </c>
       <c r="C880" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D880" t="n">
-        <v>1934.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E880" t="n">
         <v>0.0</v>
@@ -24603,10 +24603,10 @@
         <v>519</v>
       </c>
       <c r="C881" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D881" t="n">
-        <v>1934.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E881" t="n">
         <v>0.0</v>
@@ -24620,10 +24620,10 @@
         <v>519</v>
       </c>
       <c r="C882" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D882" t="n">
-        <v>1935.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E882" t="n">
         <v>0.0</v>
@@ -24637,13 +24637,13 @@
         <v>519</v>
       </c>
       <c r="C883" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D883" t="n">
-        <v>1935.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E883" t="n">
-        <v>0.0</v>
+        <v>-0.60220145</v>
       </c>
     </row>
     <row r="884">
@@ -24654,13 +24654,13 @@
         <v>519</v>
       </c>
       <c r="C884" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D884" t="n">
-        <v>1936.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E884" t="n">
-        <v>0.0</v>
+        <v>167.9</v>
       </c>
     </row>
     <row r="885">
@@ -24671,13 +24671,13 @@
         <v>519</v>
       </c>
       <c r="C885" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D885" t="n">
-        <v>1936.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E885" t="n">
-        <v>0.0</v>
+        <v>47.9384</v>
       </c>
     </row>
     <row r="886">
@@ -24691,7 +24691,7 @@
         <v>520</v>
       </c>
       <c r="D886" t="n">
-        <v>1937.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E886" t="n">
         <v>0.0</v>
@@ -24708,7 +24708,7 @@
         <v>521</v>
       </c>
       <c r="D887" t="n">
-        <v>1937.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E887" t="n">
         <v>0.0</v>
@@ -24725,7 +24725,7 @@
         <v>520</v>
       </c>
       <c r="D888" t="n">
-        <v>1938.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E888" t="n">
         <v>0.0</v>
@@ -24742,7 +24742,7 @@
         <v>521</v>
       </c>
       <c r="D889" t="n">
-        <v>1938.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E889" t="n">
         <v>0.0</v>
@@ -24759,7 +24759,7 @@
         <v>520</v>
       </c>
       <c r="D890" t="n">
-        <v>1939.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E890" t="n">
         <v>0.0</v>
@@ -24776,7 +24776,7 @@
         <v>521</v>
       </c>
       <c r="D891" t="n">
-        <v>1939.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E891" t="n">
         <v>0.0</v>
@@ -24793,7 +24793,7 @@
         <v>520</v>
       </c>
       <c r="D892" t="n">
-        <v>1940.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E892" t="n">
         <v>0.0</v>
@@ -24810,7 +24810,7 @@
         <v>521</v>
       </c>
       <c r="D893" t="n">
-        <v>1940.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E893" t="n">
         <v>0.0</v>
@@ -24827,7 +24827,7 @@
         <v>520</v>
       </c>
       <c r="D894" t="n">
-        <v>1941.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E894" t="n">
         <v>0.0</v>
@@ -24844,7 +24844,7 @@
         <v>521</v>
       </c>
       <c r="D895" t="n">
-        <v>1941.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E895" t="n">
         <v>0.0</v>
@@ -24861,7 +24861,7 @@
         <v>520</v>
       </c>
       <c r="D896" t="n">
-        <v>1942.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E896" t="n">
         <v>0.0</v>
@@ -24878,7 +24878,7 @@
         <v>521</v>
       </c>
       <c r="D897" t="n">
-        <v>1942.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E897" t="n">
         <v>0.0</v>
@@ -24895,7 +24895,7 @@
         <v>520</v>
       </c>
       <c r="D898" t="n">
-        <v>1943.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E898" t="n">
         <v>0.0</v>
@@ -24912,7 +24912,7 @@
         <v>521</v>
       </c>
       <c r="D899" t="n">
-        <v>1943.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E899" t="n">
         <v>0.0</v>
@@ -24929,7 +24929,7 @@
         <v>520</v>
       </c>
       <c r="D900" t="n">
-        <v>1944.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E900" t="n">
         <v>0.0</v>
@@ -24946,7 +24946,7 @@
         <v>521</v>
       </c>
       <c r="D901" t="n">
-        <v>1944.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E901" t="n">
         <v>0.0</v>
@@ -24963,7 +24963,7 @@
         <v>520</v>
       </c>
       <c r="D902" t="n">
-        <v>1945.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E902" t="n">
         <v>0.0</v>
@@ -24980,7 +24980,7 @@
         <v>521</v>
       </c>
       <c r="D903" t="n">
-        <v>1945.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E903" t="n">
         <v>0.0</v>
@@ -24997,7 +24997,7 @@
         <v>520</v>
       </c>
       <c r="D904" t="n">
-        <v>1946.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E904" t="n">
         <v>0.0</v>
@@ -25014,7 +25014,7 @@
         <v>521</v>
       </c>
       <c r="D905" t="n">
-        <v>1946.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E905" t="n">
         <v>0.0</v>
@@ -25028,13 +25028,13 @@
         <v>519</v>
       </c>
       <c r="C906" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D906" t="n">
-        <v>1947.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E906" t="n">
-        <v>0.0</v>
+        <v>-0.3901616</v>
       </c>
     </row>
     <row r="907">
@@ -25045,10 +25045,10 @@
         <v>519</v>
       </c>
       <c r="C907" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D907" t="n">
-        <v>1947.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E907" t="n">
         <v>0.0</v>
@@ -25062,10 +25062,10 @@
         <v>519</v>
       </c>
       <c r="C908" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D908" t="n">
-        <v>1948.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E908" t="n">
         <v>0.0</v>
@@ -25079,10 +25079,10 @@
         <v>519</v>
       </c>
       <c r="C909" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D909" t="n">
-        <v>1948.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E909" t="n">
         <v>0.0</v>
@@ -25096,10 +25096,10 @@
         <v>519</v>
       </c>
       <c r="C910" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D910" t="n">
-        <v>1949.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E910" t="n">
         <v>0.0</v>
@@ -25113,28 +25113,30 @@
         <v>519</v>
       </c>
       <c r="C911" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D911" t="n">
-        <v>1949.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E911" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="912">
-      <c r="A912"/>
+      <c r="A912" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B912" t="s">
         <v>519</v>
       </c>
       <c r="C912" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D912" t="n">
-        <v>1949.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E912" t="n">
-        <v>5.079959</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="913">
@@ -25148,7 +25150,7 @@
         <v>520</v>
       </c>
       <c r="D913" t="n">
-        <v>1950.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E913" t="n">
         <v>0.0</v>
@@ -25165,25 +25167,27 @@
         <v>521</v>
       </c>
       <c r="D914" t="n">
-        <v>1950.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E914" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="915">
-      <c r="A915"/>
+      <c r="A915" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B915" t="s">
         <v>519</v>
       </c>
       <c r="C915" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D915" t="n">
-        <v>1950.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E915" t="n">
-        <v>6.485531</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="916">
@@ -25194,10 +25198,10 @@
         <v>519</v>
       </c>
       <c r="C916" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D916" t="n">
-        <v>1951.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E916" t="n">
         <v>0.0</v>
@@ -25211,28 +25215,30 @@
         <v>519</v>
       </c>
       <c r="C917" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D917" t="n">
-        <v>1951.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E917" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="918">
-      <c r="A918"/>
+      <c r="A918" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B918" t="s">
         <v>519</v>
       </c>
       <c r="C918" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D918" t="n">
-        <v>1951.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E918" t="n">
-        <v>6.727598</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="919">
@@ -25246,7 +25252,7 @@
         <v>520</v>
       </c>
       <c r="D919" t="n">
-        <v>1952.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E919" t="n">
         <v>0.0</v>
@@ -25263,7 +25269,7 @@
         <v>521</v>
       </c>
       <c r="D920" t="n">
-        <v>1952.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E920" t="n">
         <v>0.0</v>
@@ -25280,7 +25286,7 @@
         <v>520</v>
       </c>
       <c r="D921" t="n">
-        <v>1953.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E921" t="n">
         <v>0.0</v>
@@ -25297,25 +25303,27 @@
         <v>521</v>
       </c>
       <c r="D922" t="n">
-        <v>1953.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E922" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="923">
-      <c r="A923"/>
+      <c r="A923" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B923" t="s">
         <v>519</v>
       </c>
       <c r="C923" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D923" t="n">
-        <v>1953.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E923" t="n">
-        <v>7.479326</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="924">
@@ -25326,10 +25334,10 @@
         <v>519</v>
       </c>
       <c r="C924" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D924" t="n">
-        <v>1954.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E924" t="n">
         <v>0.0</v>
@@ -25343,10 +25351,10 @@
         <v>519</v>
       </c>
       <c r="C925" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D925" t="n">
-        <v>1954.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E925" t="n">
         <v>0.0</v>
@@ -25360,10 +25368,10 @@
         <v>519</v>
       </c>
       <c r="C926" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D926" t="n">
-        <v>1955.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E926" t="n">
         <v>0.0</v>
@@ -25377,13 +25385,13 @@
         <v>519</v>
       </c>
       <c r="C927" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D927" t="n">
-        <v>1955.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E927" t="n">
-        <v>0.0</v>
+        <v>-0.06936116</v>
       </c>
     </row>
     <row r="928">
@@ -25397,7 +25405,7 @@
         <v>520</v>
       </c>
       <c r="D928" t="n">
-        <v>1956.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E928" t="n">
         <v>0.0</v>
@@ -25414,25 +25422,27 @@
         <v>521</v>
       </c>
       <c r="D929" t="n">
-        <v>1956.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E929" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="930">
-      <c r="A930"/>
+      <c r="A930" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B930" t="s">
         <v>519</v>
       </c>
       <c r="C930" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D930" t="n">
-        <v>1956.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E930" t="n">
-        <v>8.084025</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="931">
@@ -25443,10 +25453,10 @@
         <v>519</v>
       </c>
       <c r="C931" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D931" t="n">
-        <v>1957.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E931" t="n">
         <v>0.0</v>
@@ -25460,28 +25470,30 @@
         <v>519</v>
       </c>
       <c r="C932" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D932" t="n">
-        <v>1957.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E932" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="933">
-      <c r="A933"/>
+      <c r="A933" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B933" t="s">
         <v>519</v>
       </c>
       <c r="C933" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D933" t="n">
-        <v>1957.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E933" t="n">
-        <v>7.92328</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="934">
@@ -25495,7 +25507,7 @@
         <v>520</v>
       </c>
       <c r="D934" t="n">
-        <v>1958.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E934" t="n">
         <v>0.0</v>
@@ -25512,25 +25524,27 @@
         <v>521</v>
       </c>
       <c r="D935" t="n">
-        <v>1958.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E935" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="936">
-      <c r="A936"/>
+      <c r="A936" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B936" t="s">
         <v>519</v>
       </c>
       <c r="C936" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D936" t="n">
-        <v>1958.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E936" t="n">
-        <v>8.084237</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="937">
@@ -25541,10 +25555,10 @@
         <v>519</v>
       </c>
       <c r="C937" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D937" t="n">
-        <v>1959.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E937" t="n">
         <v>0.0</v>
@@ -25558,28 +25572,30 @@
         <v>519</v>
       </c>
       <c r="C938" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D938" t="n">
-        <v>1959.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E938" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="939">
-      <c r="A939"/>
+      <c r="A939" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B939" t="s">
         <v>519</v>
       </c>
       <c r="C939" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D939" t="n">
-        <v>1959.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E939" t="n">
-        <v>8.216249</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="940">
@@ -25593,7 +25609,7 @@
         <v>520</v>
       </c>
       <c r="D940" t="n">
-        <v>1960.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E940" t="n">
         <v>0.0</v>
@@ -25610,7 +25626,7 @@
         <v>521</v>
       </c>
       <c r="D941" t="n">
-        <v>1960.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E941" t="n">
         <v>0.0</v>
@@ -25627,7 +25643,7 @@
         <v>520</v>
       </c>
       <c r="D942" t="n">
-        <v>1961.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E942" t="n">
         <v>0.0</v>
@@ -25644,7 +25660,7 @@
         <v>521</v>
       </c>
       <c r="D943" t="n">
-        <v>1961.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E943" t="n">
         <v>0.0</v>
@@ -25661,7 +25677,7 @@
         <v>520</v>
       </c>
       <c r="D944" t="n">
-        <v>1962.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E944" t="n">
         <v>0.0</v>
@@ -25678,7 +25694,7 @@
         <v>521</v>
       </c>
       <c r="D945" t="n">
-        <v>1962.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E945" t="n">
         <v>0.0</v>
@@ -25695,7 +25711,7 @@
         <v>520</v>
       </c>
       <c r="D946" t="n">
-        <v>1963.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E946" t="n">
         <v>0.0</v>
@@ -25712,7 +25728,7 @@
         <v>521</v>
       </c>
       <c r="D947" t="n">
-        <v>1963.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E947" t="n">
         <v>0.0</v>
@@ -25726,13 +25742,13 @@
         <v>519</v>
       </c>
       <c r="C948" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D948" t="n">
-        <v>1964.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E948" t="n">
-        <v>0.0</v>
+        <v>0.19448466</v>
       </c>
     </row>
     <row r="949">
@@ -25743,10 +25759,10 @@
         <v>519</v>
       </c>
       <c r="C949" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D949" t="n">
-        <v>1964.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E949" t="n">
         <v>0.0</v>
@@ -25760,10 +25776,10 @@
         <v>519</v>
       </c>
       <c r="C950" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D950" t="n">
-        <v>1965.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E950" t="n">
         <v>0.0</v>
@@ -25777,10 +25793,10 @@
         <v>519</v>
       </c>
       <c r="C951" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D951" t="n">
-        <v>1965.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E951" t="n">
         <v>0.0</v>
@@ -25794,10 +25810,10 @@
         <v>519</v>
       </c>
       <c r="C952" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D952" t="n">
-        <v>1966.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E952" t="n">
         <v>0.0</v>
@@ -25811,10 +25827,10 @@
         <v>519</v>
       </c>
       <c r="C953" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D953" t="n">
-        <v>1966.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E953" t="n">
         <v>0.0</v>
@@ -25828,10 +25844,10 @@
         <v>519</v>
       </c>
       <c r="C954" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D954" t="n">
-        <v>1967.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E954" t="n">
         <v>0.0</v>
@@ -25845,10 +25861,10 @@
         <v>519</v>
       </c>
       <c r="C955" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D955" t="n">
-        <v>1967.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E955" t="n">
         <v>0.0</v>
@@ -25862,10 +25878,10 @@
         <v>519</v>
       </c>
       <c r="C956" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D956" t="n">
-        <v>1968.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E956" t="n">
         <v>0.0</v>
@@ -25879,28 +25895,30 @@
         <v>519</v>
       </c>
       <c r="C957" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D957" t="n">
-        <v>1968.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E957" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="958">
-      <c r="A958"/>
+      <c r="A958" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B958" t="s">
         <v>519</v>
       </c>
       <c r="C958" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D958" t="n">
-        <v>1968.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E958" t="n">
-        <v>8.699592</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="959">
@@ -25914,7 +25932,7 @@
         <v>520</v>
       </c>
       <c r="D959" t="n">
-        <v>1969.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E959" t="n">
         <v>0.0</v>
@@ -25931,25 +25949,27 @@
         <v>521</v>
       </c>
       <c r="D960" t="n">
-        <v>1969.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E960" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="961">
-      <c r="A961"/>
+      <c r="A961" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B961" t="s">
         <v>519</v>
       </c>
       <c r="C961" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D961" t="n">
-        <v>1969.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E961" t="n">
-        <v>9.436255</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="962">
@@ -25960,10 +25980,10 @@
         <v>519</v>
       </c>
       <c r="C962" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D962" t="n">
-        <v>1970.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E962" t="n">
         <v>0.0</v>
@@ -25977,28 +25997,30 @@
         <v>519</v>
       </c>
       <c r="C963" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D963" t="n">
-        <v>1970.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E963" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="964">
-      <c r="A964"/>
+      <c r="A964" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B964" t="s">
         <v>519</v>
       </c>
       <c r="C964" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D964" t="n">
-        <v>1970.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E964" t="n">
-        <v>8.280041</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="965">
@@ -26012,7 +26034,7 @@
         <v>520</v>
       </c>
       <c r="D965" t="n">
-        <v>1971.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E965" t="n">
         <v>0.0</v>
@@ -26029,25 +26051,27 @@
         <v>521</v>
       </c>
       <c r="D966" t="n">
-        <v>1971.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E966" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="967">
-      <c r="A967"/>
+      <c r="A967" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B967" t="s">
         <v>519</v>
       </c>
       <c r="C967" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D967" t="n">
-        <v>1971.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E967" t="n">
-        <v>12.315825</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="968">
@@ -26058,10 +26082,10 @@
         <v>519</v>
       </c>
       <c r="C968" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D968" t="n">
-        <v>1972.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E968" t="n">
         <v>0.0</v>
@@ -26075,13 +26099,13 @@
         <v>519</v>
       </c>
       <c r="C969" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D969" t="n">
-        <v>1972.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E969" t="n">
-        <v>0.0</v>
+        <v>0.44126572</v>
       </c>
     </row>
     <row r="970">
@@ -26095,7 +26119,7 @@
         <v>520</v>
       </c>
       <c r="D970" t="n">
-        <v>1973.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E970" t="n">
         <v>0.0</v>
@@ -26112,7 +26136,7 @@
         <v>521</v>
       </c>
       <c r="D971" t="n">
-        <v>1973.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E971" t="n">
         <v>0.0</v>
@@ -26129,7 +26153,7 @@
         <v>520</v>
       </c>
       <c r="D972" t="n">
-        <v>1974.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E972" t="n">
         <v>0.0</v>
@@ -26146,7 +26170,7 @@
         <v>521</v>
       </c>
       <c r="D973" t="n">
-        <v>1974.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E973" t="n">
         <v>0.0</v>
@@ -26163,7 +26187,7 @@
         <v>520</v>
       </c>
       <c r="D974" t="n">
-        <v>1975.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E974" t="n">
         <v>0.0</v>
@@ -26180,7 +26204,7 @@
         <v>521</v>
       </c>
       <c r="D975" t="n">
-        <v>1975.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E975" t="n">
         <v>0.0</v>
@@ -26197,7 +26221,7 @@
         <v>520</v>
       </c>
       <c r="D976" t="n">
-        <v>1976.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E976" t="n">
         <v>0.0</v>
@@ -26214,25 +26238,27 @@
         <v>521</v>
       </c>
       <c r="D977" t="n">
-        <v>1976.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E977" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="978">
-      <c r="A978"/>
+      <c r="A978" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B978" t="s">
         <v>519</v>
       </c>
       <c r="C978" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D978" t="n">
-        <v>1976.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E978" t="n">
-        <v>4.428547</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="979">
@@ -26243,10 +26269,10 @@
         <v>519</v>
       </c>
       <c r="C979" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D979" t="n">
-        <v>1977.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E979" t="n">
         <v>0.0</v>
@@ -26260,28 +26286,30 @@
         <v>519</v>
       </c>
       <c r="C980" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D980" t="n">
-        <v>1977.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E980" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="981">
-      <c r="A981"/>
+      <c r="A981" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B981" t="s">
         <v>519</v>
       </c>
       <c r="C981" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D981" t="n">
-        <v>1977.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E981" t="n">
-        <v>9.002292</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="982">
@@ -26295,7 +26323,7 @@
         <v>520</v>
       </c>
       <c r="D982" t="n">
-        <v>1978.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E982" t="n">
         <v>0.0</v>
@@ -26312,25 +26340,27 @@
         <v>521</v>
       </c>
       <c r="D983" t="n">
-        <v>1978.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E983" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="984">
-      <c r="A984"/>
+      <c r="A984" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B984" t="s">
         <v>519</v>
       </c>
       <c r="C984" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D984" t="n">
         <v>1978.0</v>
       </c>
       <c r="E984" t="n">
-        <v>14.89477</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="985">
@@ -26341,10 +26371,10 @@
         <v>519</v>
       </c>
       <c r="C985" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D985" t="n">
-        <v>1979.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E985" t="n">
         <v>0.0</v>
@@ -26358,7 +26388,7 @@
         <v>519</v>
       </c>
       <c r="C986" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D986" t="n">
         <v>1979.0</v>
@@ -26375,10 +26405,10 @@
         <v>519</v>
       </c>
       <c r="C987" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D987" t="n">
-        <v>1980.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E987" t="n">
         <v>0.0</v>
@@ -26392,7 +26422,7 @@
         <v>519</v>
       </c>
       <c r="C988" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D988" t="n">
         <v>1980.0</v>
@@ -26402,18 +26432,20 @@
       </c>
     </row>
     <row r="989">
-      <c r="A989"/>
+      <c r="A989" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B989" t="s">
         <v>519</v>
       </c>
       <c r="C989" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D989" t="n">
         <v>1980.0</v>
       </c>
       <c r="E989" t="n">
-        <v>12.028681</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="990">
@@ -26424,13 +26456,13 @@
         <v>519</v>
       </c>
       <c r="C990" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D990" t="n">
-        <v>1981.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E990" t="n">
-        <v>0.0</v>
+        <v>0.70506266</v>
       </c>
     </row>
     <row r="991">
@@ -26441,7 +26473,7 @@
         <v>519</v>
       </c>
       <c r="C991" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D991" t="n">
         <v>1981.0</v>
@@ -26451,18 +26483,20 @@
       </c>
     </row>
     <row r="992">
-      <c r="A992"/>
+      <c r="A992" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B992" t="s">
         <v>519</v>
       </c>
       <c r="C992" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D992" t="n">
         <v>1981.0</v>
       </c>
       <c r="E992" t="n">
-        <v>9.833899</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="993">
@@ -26738,18 +26772,20 @@
       </c>
     </row>
     <row r="1009">
-      <c r="A1009"/>
+      <c r="A1009" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B1009" t="s">
         <v>519</v>
       </c>
       <c r="C1009" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D1009" t="n">
-        <v>1989.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E1009" t="n">
-        <v>3.895498</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1010">
@@ -26760,7 +26796,7 @@
         <v>519</v>
       </c>
       <c r="C1010" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D1010" t="n">
         <v>1990.0</v>
@@ -26777,13 +26813,13 @@
         <v>519</v>
       </c>
       <c r="C1011" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D1011" t="n">
         <v>1990.0</v>
       </c>
       <c r="E1011" t="n">
-        <v>0.0</v>
+        <v>0.98585964</v>
       </c>
     </row>
     <row r="1012">
@@ -26794,7 +26830,7 @@
         <v>519</v>
       </c>
       <c r="C1012" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D1012" t="n">
         <v>1990.0</v>
@@ -26804,18 +26840,20 @@
       </c>
     </row>
     <row r="1013">
-      <c r="A1013"/>
+      <c r="A1013" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B1013" t="s">
         <v>519</v>
       </c>
       <c r="C1013" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D1013" t="n">
-        <v>1990.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E1013" t="n">
-        <v>2.290948</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1014">
@@ -26826,7 +26864,7 @@
         <v>519</v>
       </c>
       <c r="C1014" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D1014" t="n">
         <v>1991.0</v>
@@ -26843,28 +26881,30 @@
         <v>519</v>
       </c>
       <c r="C1015" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D1015" t="n">
-        <v>1991.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E1015" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="1016">
-      <c r="A1016"/>
+      <c r="A1016" t="n">
+        <v>729.0</v>
+      </c>
       <c r="B1016" t="s">
         <v>519</v>
       </c>
       <c r="C1016" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D1016" t="n">
-        <v>1991.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E1016" t="n">
-        <v>2.042299</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1017">
@@ -26878,7 +26918,7 @@
         <v>520</v>
       </c>
       <c r="D1017" t="n">
-        <v>1992.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E1017" t="n">
         <v>0.0</v>
@@ -26895,7 +26935,7 @@
         <v>521</v>
       </c>
       <c r="D1018" t="n">
-        <v>1992.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E1018" t="n">
         <v>0.0</v>
@@ -26912,7 +26952,7 @@
         <v>520</v>
       </c>
       <c r="D1019" t="n">
-        <v>1993.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E1019" t="n">
         <v>0.0</v>
@@ -26929,7 +26969,7 @@
         <v>521</v>
       </c>
       <c r="D1020" t="n">
-        <v>1993.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E1020" t="n">
         <v>0.0</v>
@@ -26946,7 +26986,7 @@
         <v>520</v>
       </c>
       <c r="D1021" t="n">
-        <v>1994.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E1021" t="n">
         <v>0.0</v>
@@ -26963,7 +27003,7 @@
         <v>521</v>
       </c>
       <c r="D1022" t="n">
-        <v>1994.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E1022" t="n">
         <v>0.0</v>
@@ -26980,7 +27020,7 @@
         <v>520</v>
       </c>
       <c r="D1023" t="n">
-        <v>1995.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E1023" t="n">
         <v>0.0</v>
@@ -26997,7 +27037,7 @@
         <v>521</v>
       </c>
       <c r="D1024" t="n">
-        <v>1995.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E1024" t="n">
         <v>0.0</v>
@@ -27014,7 +27054,7 @@
         <v>520</v>
       </c>
       <c r="D1025" t="n">
-        <v>1996.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E1025" t="n">
         <v>0.0</v>
@@ -27031,7 +27071,7 @@
         <v>521</v>
       </c>
       <c r="D1026" t="n">
-        <v>1996.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E1026" t="n">
         <v>0.0</v>
@@ -27048,7 +27088,7 @@
         <v>520</v>
       </c>
       <c r="D1027" t="n">
-        <v>1997.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E1027" t="n">
         <v>0.0</v>
@@ -27065,7 +27105,7 @@
         <v>521</v>
       </c>
       <c r="D1028" t="n">
-        <v>1997.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E1028" t="n">
         <v>0.0</v>
@@ -27082,7 +27122,7 @@
         <v>520</v>
       </c>
       <c r="D1029" t="n">
-        <v>1998.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E1029" t="n">
         <v>0.0</v>
@@ -27099,7 +27139,7 @@
         <v>521</v>
       </c>
       <c r="D1030" t="n">
-        <v>1998.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E1030" t="n">
         <v>0.0</v>
@@ -27116,7 +27156,7 @@
         <v>520</v>
       </c>
       <c r="D1031" t="n">
-        <v>1999.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E1031" t="n">
         <v>0.0</v>
@@ -27133,7 +27173,7 @@
         <v>521</v>
       </c>
       <c r="D1032" t="n">
-        <v>1999.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E1032" t="n">
         <v>0.0</v>
@@ -27147,13 +27187,13 @@
         <v>519</v>
       </c>
       <c r="C1033" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D1033" t="n">
         <v>2000.0</v>
       </c>
       <c r="E1033" t="n">
-        <v>0.0</v>
+        <v>1.30576476</v>
       </c>
     </row>
     <row r="1034">
@@ -27164,13 +27204,13 @@
         <v>519</v>
       </c>
       <c r="C1034" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D1034" t="n">
         <v>2000.0</v>
       </c>
       <c r="E1034" t="n">
-        <v>0.0</v>
+        <v>68.6667</v>
       </c>
     </row>
     <row r="1035">
@@ -27181,13 +27221,13 @@
         <v>519</v>
       </c>
       <c r="C1035" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D1035" t="n">
-        <v>2000.0</v>
+        <v>2011.0</v>
       </c>
       <c r="E1035" t="n">
-        <v>68.6667</v>
+        <v>4.27246459</v>
       </c>
     </row>
     <row r="1036">
@@ -27198,13 +27238,13 @@
         <v>519</v>
       </c>
       <c r="C1036" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D1036" t="n">
         <v>2011.0</v>
       </c>
       <c r="E1036" t="n">
-        <v>4.272465</v>
+        <v>2.66661962</v>
       </c>
     </row>
     <row r="1037">
@@ -27218,10 +27258,10 @@
         <v>523</v>
       </c>
       <c r="D1037" t="n">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E1037" t="n">
-        <v>2.66662</v>
+        <v>5.64406497</v>
       </c>
     </row>
     <row r="1038">
@@ -27232,13 +27272,13 @@
         <v>519</v>
       </c>
       <c r="C1038" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D1038" t="n">
         <v>2012.0</v>
       </c>
       <c r="E1038" t="n">
-        <v>5.644065</v>
+        <v>3.57295833</v>
       </c>
     </row>
     <row r="1039">
@@ -27252,10 +27292,10 @@
         <v>523</v>
       </c>
       <c r="D1039" t="n">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E1039" t="n">
-        <v>3.572958</v>
+        <v>7.43638222</v>
       </c>
     </row>
     <row r="1040">
@@ -27266,30 +27306,13 @@
         <v>519</v>
       </c>
       <c r="C1040" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D1040" t="n">
         <v>2013.0</v>
       </c>
       <c r="E1040" t="n">
-        <v>7.436382</v>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="n">
-        <v>729.0</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>519</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>523</v>
-      </c>
-      <c r="D1041" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="E1041" t="n">
-        <v>4.756761</v>
+        <v>4.75676055</v>
       </c>
     </row>
   </sheetData>
